--- a/data_prep/input/global_metainfo/plot_sites_information.xlsx
+++ b/data_prep/input/global_metainfo/plot_sites_information.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisahulsmann/Dropbox/Work/Publications ongoing/2022 Huelsmann CNDD dynamic/analysis/data_prep/ForestGEO_datacleaning@git/global_metainfo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisahulsmann/Dropbox/Work/Publications ongoing/2022 Huelsmann CNDD dynamic/analysis/latitudinalCNDD@git/data_prep/input/global_metainfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A88C5-217C-7143-AD68-2934F17DCA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0944BBAE-8E1B-9441-941B-6A2F8B56BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{30C046F3-23A7-D84A-9C76-120555F59374}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>site</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Barro Colorado Island 1</t>
+  </si>
+  <si>
+    <t>temperate</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="37" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -773,13 +776,13 @@
         <v>500</v>
       </c>
       <c r="L3" s="2">
-        <v>9.1542999999999992</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2">
         <v>-79.846100000000007</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2">
         <v>120</v>

--- a/data_prep/input/global_metainfo/plot_sites_information.xlsx
+++ b/data_prep/input/global_metainfo/plot_sites_information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisahulsmann/Dropbox/Work/Publications ongoing/2022 Huelsmann CNDD dynamic/analysis/latitudinalCNDD@git/data_prep/input/global_metainfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0944BBAE-8E1B-9441-941B-6A2F8B56BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F5AFC-7962-3F4A-BD1A-9E5C42EFD3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{30C046F3-23A7-D84A-9C76-120555F59374}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>site</t>
   </si>
@@ -134,9 +134,6 @@
     <t>lat_zone</t>
   </si>
   <si>
-    <t>tropical</t>
-  </si>
-  <si>
     <t>size_data</t>
   </si>
   <si>
@@ -146,26 +143,71 @@
     <t>gy_data</t>
   </si>
   <si>
-    <t>bcione</t>
-  </si>
-  <si>
-    <t>bcitwo</t>
-  </si>
-  <si>
-    <t>Barro Colorado Island 2</t>
-  </si>
-  <si>
-    <t>Barro Colorado Island 1</t>
-  </si>
-  <si>
-    <t>temperate</t>
+    <t>Site 1</t>
+  </si>
+  <si>
+    <t>Site 2</t>
+  </si>
+  <si>
+    <t>Site 3</t>
+  </si>
+  <si>
+    <t>Site 4</t>
+  </si>
+  <si>
+    <t>Site 5</t>
+  </si>
+  <si>
+    <t>Site 6</t>
+  </si>
+  <si>
+    <t>Site 7</t>
+  </si>
+  <si>
+    <t>Site 8</t>
+  </si>
+  <si>
+    <t>Site 9</t>
+  </si>
+  <si>
+    <t>Site 10</t>
+  </si>
+  <si>
+    <t>site10</t>
+  </si>
+  <si>
+    <t>site01</t>
+  </si>
+  <si>
+    <t>site02</t>
+  </si>
+  <si>
+    <t>site03</t>
+  </si>
+  <si>
+    <t>site04</t>
+  </si>
+  <si>
+    <t>site05</t>
+  </si>
+  <si>
+    <t>site06</t>
+  </si>
+  <si>
+    <t>site07</t>
+  </si>
+  <si>
+    <t>site08</t>
+  </si>
+  <si>
+    <t>site09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +219,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -524,11 +572,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFFB14B-5532-C44C-9A07-D93CD5FEDBAD}">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="37" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -589,13 +637,13 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -657,10 +705,10 @@
     </row>
     <row r="2" spans="1:30" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>8</v>
@@ -690,13 +738,10 @@
         <v>500</v>
       </c>
       <c r="L2" s="2">
-        <v>9.1542999999999992</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>-79.846100000000007</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="O2" s="2">
         <v>120</v>
@@ -743,10 +788,10 @@
     </row>
     <row r="3" spans="1:30" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>8</v>
@@ -776,13 +821,10 @@
         <v>500</v>
       </c>
       <c r="L3" s="2">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="M3" s="2">
-        <v>-79.846100000000007</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>-80</v>
       </c>
       <c r="O3" s="2">
         <v>120</v>
@@ -827,7 +869,672 @@
         <v>299</v>
       </c>
     </row>
+    <row r="4" spans="1:30" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2">
+        <v>200</v>
+      </c>
+      <c r="H4" s="2">
+        <v>500</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>200</v>
+      </c>
+      <c r="K4" s="2">
+        <v>500</v>
+      </c>
+      <c r="L4" s="2">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2">
+        <v>80</v>
+      </c>
+      <c r="O4" s="2">
+        <v>120</v>
+      </c>
+      <c r="P4" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>40</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>2551</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1311</v>
+      </c>
+      <c r="X4" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2">
+        <v>200</v>
+      </c>
+      <c r="H5" s="2">
+        <v>500</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>200</v>
+      </c>
+      <c r="K5" s="2">
+        <v>500</v>
+      </c>
+      <c r="L5" s="2">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-60</v>
+      </c>
+      <c r="O5" s="2">
+        <v>120</v>
+      </c>
+      <c r="P5" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>40</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>2551</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1311</v>
+      </c>
+      <c r="X5" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>500</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <v>200</v>
+      </c>
+      <c r="K6" s="2">
+        <v>500</v>
+      </c>
+      <c r="L6" s="2">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>60</v>
+      </c>
+      <c r="O6" s="2">
+        <v>120</v>
+      </c>
+      <c r="P6" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>40</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>2551</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1311</v>
+      </c>
+      <c r="X6" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>500</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>200</v>
+      </c>
+      <c r="K7" s="2">
+        <v>500</v>
+      </c>
+      <c r="L7" s="2">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-40</v>
+      </c>
+      <c r="O7" s="2">
+        <v>120</v>
+      </c>
+      <c r="P7" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>40</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>2551</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1311</v>
+      </c>
+      <c r="X7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2">
+        <v>500</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>200</v>
+      </c>
+      <c r="K8" s="2">
+        <v>500</v>
+      </c>
+      <c r="L8" s="2">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2">
+        <v>40</v>
+      </c>
+      <c r="O8" s="2">
+        <v>120</v>
+      </c>
+      <c r="P8" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>40</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>2551</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1311</v>
+      </c>
+      <c r="X8" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <v>200</v>
+      </c>
+      <c r="H9" s="2">
+        <v>500</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>200</v>
+      </c>
+      <c r="K9" s="2">
+        <v>500</v>
+      </c>
+      <c r="L9" s="2">
+        <v>42</v>
+      </c>
+      <c r="M9" s="2">
+        <v>-20</v>
+      </c>
+      <c r="O9" s="2">
+        <v>120</v>
+      </c>
+      <c r="P9" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>40</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2551</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1311</v>
+      </c>
+      <c r="X9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200</v>
+      </c>
+      <c r="H10" s="2">
+        <v>500</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>200</v>
+      </c>
+      <c r="K10" s="2">
+        <v>500</v>
+      </c>
+      <c r="L10" s="2">
+        <v>48</v>
+      </c>
+      <c r="M10" s="2">
+        <v>20</v>
+      </c>
+      <c r="O10" s="2">
+        <v>120</v>
+      </c>
+      <c r="P10" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>40</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="V10" s="2">
+        <v>2551</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1311</v>
+      </c>
+      <c r="X10" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1982</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F11" s="2">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2">
+        <v>200</v>
+      </c>
+      <c r="H11" s="2">
+        <v>500</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>200</v>
+      </c>
+      <c r="K11" s="2">
+        <v>500</v>
+      </c>
+      <c r="L11" s="2">
+        <v>54</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>120</v>
+      </c>
+      <c r="P11" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>40</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>2551</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1311</v>
+      </c>
+      <c r="X11" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>